--- a/spliced/walkingToRunning/2023-03-24_10-06-07/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-06-07/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,6 +1035,286 @@
         <v>2.483197927474976</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>38.35754998722376</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-16.75077860103589</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9.333282041253318</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-9.858623504638672</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-13.49863147735596</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-4.903345584869385</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4.113532688307743</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-10.04574092130529</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.603543145316186</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.233975768089294</v>
+      </c>
+      <c r="G23" t="n">
+        <v>17.44783401489258</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-5.1009521484375</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-28.9259203975992</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.342653398928785</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-14.07138639651451</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6.964565753936768</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-6.484397888183594</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-1.327785611152649</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>42.44476240762218</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-44.82572951820286</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-4.690105651476593</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-2.914164066314697</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-17.45715522766113</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-3.230347871780396</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>47.95408476361651</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-34.91908646222309</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8.182450048671846</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.99935120344162</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.104047536849976</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.052831172943115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>16.99495727823363</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-33.59686962269733</v>
+      </c>
+      <c r="E27" t="n">
+        <v>18.0336912966659</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-10.20110511779785</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-13.58332061767578</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-4.393616676330566</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5081373297654075</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-34.04575231800982</v>
+      </c>
+      <c r="E28" t="n">
+        <v>16.78914682761511</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.081676959991455</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6.77015495300293</v>
+      </c>
+      <c r="H28" t="n">
+        <v>9.200222969055176</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-27.83808203513578</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.896602891246781</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-12.58596580072954</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4.065448760986328</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-7.618904590606689</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.8031428456306458</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>21.10497084907895</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-35.42225003686769</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-4.233091697929673</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-1.262471556663513</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-17.20468711853027</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-2.038849592208862</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>45.68115871737581</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-33.5533879203098</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10.18618937901121</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.1183775141835212</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.852112531661988</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.839245676994324</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
